--- a/Models_Analysis/CarSensor.xlsx
+++ b/Models_Analysis/CarSensor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mazen/Desktop/efabless/TFLite-Applications-And-Models/Models_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09F48C8-49F0-DF4C-82EC-46451E0AA646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B943234-AD99-B540-B596-E1DEDF09A636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -232,8 +232,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -242,26 +257,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:I42"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -503,39 +503,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -548,16 +548,16 @@
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="6">
@@ -591,313 +591,313 @@
       <c r="K3" s="2">
         <v>1200</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="2">
         <v>6272</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="2">
         <v>6272</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="2">
         <v>6272</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="2">
         <v>6272</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="2">
         <v>6272</v>
       </c>
-      <c r="L8" s="7"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K9" s="2">
         <v>3136</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="6">
         <v>3136</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K11" s="6">
         <v>3136</v>
       </c>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="6">
         <v>6016</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="6">
         <v>6016</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K14" s="6">
         <v>6016</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K15" s="6">
         <v>6016</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="6">
         <v>6016</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K17" s="6">
         <v>2944</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K18" s="6">
         <v>2944</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K19" s="6">
         <v>128</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K20" s="6">
         <v>4</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
@@ -914,7 +914,7 @@
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="6">
@@ -938,7 +938,7 @@
       <c r="H22" s="6">
         <v>3.54</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="6" t="s">
@@ -947,21 +947,21 @@
       <c r="K22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L22" s="10"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="10"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
@@ -978,7 +978,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="6">
@@ -1012,358 +1012,352 @@
       <c r="K25" s="2">
         <v>1200</v>
       </c>
-      <c r="L25" s="10"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="2">
         <v>6272</v>
       </c>
-      <c r="L26" s="10"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="2">
         <v>6272</v>
       </c>
-      <c r="L27" s="10"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K28" s="2">
         <v>6272</v>
       </c>
-      <c r="L28" s="10"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="2">
         <v>6272</v>
       </c>
-      <c r="L29" s="10"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K30" s="2">
         <v>6272</v>
       </c>
-      <c r="L30" s="10"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="2">
         <v>3136</v>
       </c>
-      <c r="L31" s="10"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="6" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="6">
         <v>3136</v>
       </c>
-      <c r="L32" s="10"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K33" s="6">
         <v>3136</v>
       </c>
-      <c r="L33" s="10"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K34" s="6">
         <v>6016</v>
       </c>
-      <c r="L34" s="10"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="K35" s="6">
         <v>6016</v>
       </c>
-      <c r="L35" s="10"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K36" s="6">
         <v>6016</v>
       </c>
-      <c r="L36" s="10"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K37" s="6">
         <v>6016</v>
       </c>
-      <c r="L37" s="10"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K38" s="6">
         <v>6016</v>
       </c>
-      <c r="L38" s="10"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K39" s="6">
         <v>2944</v>
       </c>
-      <c r="L39" s="10"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K40" s="6">
         <v>2944</v>
       </c>
-      <c r="L40" s="10"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="6" t="s">
         <v>32</v>
       </c>
       <c r="K41" s="6">
         <v>128</v>
       </c>
-      <c r="L41" s="10"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="6" t="s">
         <v>33</v>
       </c>
       <c r="K42" s="6">
         <v>4</v>
       </c>
-      <c r="L42" s="10"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
+      <c r="A44" s="7"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
+      <c r="A45" s="7"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
+      <c r="A46" s="7"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
+      <c r="A47" s="7"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
+      <c r="A49" s="7"/>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
+      <c r="A50" s="7"/>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
+      <c r="A52" s="7"/>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
+      <c r="A53" s="7"/>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="15"/>
+      <c r="A54" s="7"/>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
+      <c r="A55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B26:I42"/>
-    <mergeCell ref="A25:A42"/>
-    <mergeCell ref="L25:L42"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="B23:K23"/>
     <mergeCell ref="B4:I20"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="L3:L20"/>
@@ -1376,6 +1370,12 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="B26:I42"/>
+    <mergeCell ref="A25:A42"/>
+    <mergeCell ref="L25:L42"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="B23:K23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
